--- a/FederalReserveSpending.xlsx
+++ b/FederalReserveSpending.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="24320" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Discretionary spending</t>
   </si>
@@ -83,16 +83,32 @@
   </si>
   <si>
     <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>RECODED</t>
+  </si>
+  <si>
+    <t>Economic Development</t>
+  </si>
+  <si>
+    <t>Security &amp; External Relations</t>
+  </si>
+  <si>
+    <t>Social Development</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,7 +159,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -172,8 +188,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,8 +223,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="54">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -196,6 +239,19 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -209,6 +265,19 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -238,7 +307,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11339888127835"/>
+          <c:x val="0.0861166147515926"/>
           <c:y val="0.0250521920668058"/>
           <c:w val="0.695657806677628"/>
           <c:h val="0.839888876103431"/>
@@ -350,11 +419,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2103572472"/>
-        <c:axId val="-2146663288"/>
+        <c:axId val="2104751000"/>
+        <c:axId val="2104754104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2103572472"/>
+        <c:axId val="2104751000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146663288"/>
+        <c:crossAx val="2104754104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146663288"/>
+        <c:axId val="2104754104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103572472"/>
+        <c:crossAx val="2104751000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -409,16 +478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -762,18 +831,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="9" max="10" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:15">
       <c r="B1">
         <v>2012</v>
       </c>
@@ -798,14 +868,17 @@
       <c r="I1">
         <v>2015</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:15">
       <c r="B2" s="2">
         <v>1.2849999999999999</v>
       </c>
@@ -831,257 +904,321 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K2" s="2">
-        <f>J2</f>
+      <c r="L2" s="2">
+        <f>K2</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="L2" s="3">
-        <f>J2*1000</f>
+      <c r="M2" s="3">
+        <f>K2*1000</f>
         <v>1160</v>
       </c>
-      <c r="M2" s="5">
-        <f>K2/K23</f>
+      <c r="N2" s="5">
+        <f>L2/L23</f>
         <v>0.31182795698924731</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:15">
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K3" s="2">
-        <f>J3*J2</f>
+      <c r="L3" s="2">
+        <f>K3*K2</f>
         <v>0.63800000000000001</v>
       </c>
-      <c r="L3" s="3">
-        <f>K3*1000</f>
+      <c r="M3" s="3">
+        <f>L3*1000</f>
         <v>638</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <f>SUMIF($J$3:$J$14,N3,$M$3:$M$14)</f>
+        <v>638.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.06</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K4:K14" si="1">J4*J3</f>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L14" si="1">K4*K3</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L14" si="2">K4*1000</f>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M14" si="2">L4*1000</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O6" si="3">SUMIF($J$3:$J$14,N4,$M$3:$M$14)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.06</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.06</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <f>SUMIF($J$3:$J$14,N6,$M$3:$M$14)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1">
         <v>0.05</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:15">
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.05</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
         <v>2.5000000000000005E-3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>2.5000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:15">
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.05</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
         <v>2.5000000000000005E-3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>2.5000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:15">
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.03</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
         <v>1.5E-3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:15">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1">
         <v>0.03</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:15">
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.03</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:15">
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.02</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:15">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.01</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:15">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="2">
         <v>2.032</v>
       </c>
@@ -1097,133 +1234,133 @@
         <v>2032</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="G16:H16" si="3">C16*1000</f>
+        <f t="shared" ref="G16:H16" si="4">C16*1000</f>
         <v>2086</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2308</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="2">
-        <v>2.56</v>
-      </c>
       <c r="K16" s="2">
         <v>2.56</v>
       </c>
-      <c r="L16" s="3">
-        <f>K16*1000</f>
+      <c r="L16" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="M16" s="3">
+        <f>L16*1000</f>
         <v>2560</v>
       </c>
-      <c r="M16" s="5">
-        <f>K16/K23</f>
+      <c r="N16" s="5">
+        <f>L16/L23</f>
         <v>0.68817204301075274</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.5</v>
       </c>
-      <c r="K17" s="2">
-        <f>J17*J16</f>
+      <c r="L17" s="2">
+        <f>K17*K16</f>
         <v>1.28</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17:L23" si="4">K17*1000</f>
+      <c r="M17" s="3">
+        <f t="shared" ref="M17:M23" si="5">L17*1000</f>
         <v>1280</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.39</v>
       </c>
-      <c r="K18" s="2">
-        <f t="shared" ref="K18:K21" si="5">J18*J17</f>
+      <c r="L18" s="2">
+        <f t="shared" ref="L18:L21" si="6">K18*K17</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="4"/>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.04</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5600000000000001E-2</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="5"/>
-        <v>1.5600000000000001E-2</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="4"/>
         <v>15.600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.03</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="5"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.04</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="5"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="B23" s="2">
         <f>B2+B16</f>
         <v>3.3170000000000002</v>
@@ -1252,30 +1389,30 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="2">
-        <f>K2+K16</f>
+      <c r="L23" s="2">
+        <f>L2+L16</f>
         <v>3.7199999999999998</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="4"/>
+      <c r="M23" s="3">
+        <f>L23*1000</f>
         <v>3719.9999999999995</v>
       </c>
-      <c r="M23">
-        <f>K2/K23</f>
+      <c r="N23">
+        <f>L2/L23</f>
         <v>0.31182795698924731</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="L25">
+    <row r="25" spans="1:14">
+      <c r="M25">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="L26">
+    <row r="26" spans="1:14">
+      <c r="M26">
         <v>14.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1291,11 +1428,24 @@
       <c r="E27" s="6">
         <v>2015</v>
       </c>
-      <c r="L27">
+      <c r="F27" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2013</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2014</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2015</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="M27">
         <v>11.17</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1304,22 +1454,34 @@
         <v>2032</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:D28" si="6">G16</f>
+        <f t="shared" ref="C28:D28" si="7">G16</f>
         <v>2086</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2308</v>
       </c>
       <c r="E28" s="3">
-        <f>L16</f>
+        <f>M16</f>
         <v>2560</v>
       </c>
-      <c r="L28">
+      <c r="F28" s="7">
+        <f>B28/B$30</f>
+        <v>0.61260174856798311</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" ref="G28:H30" si="8">C28/C$30</f>
+        <v>0.6452211568202908</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="8"/>
+        <v>0.69518072289156629</v>
+      </c>
+      <c r="M28">
         <v>7.42</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1335,24 +1497,111 @@
       <c r="E29" s="3">
         <v>1160</v>
       </c>
-      <c r="L29">
+      <c r="F29" s="7">
+        <f>B29/B$30</f>
+        <v>0.38739825143201689</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="8"/>
+        <v>0.35477884317970926</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="8"/>
+        <v>0.30481927710843376</v>
+      </c>
+      <c r="M29">
         <v>3.74</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="L30">
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B28+B29</f>
+        <v>3317</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:E30" si="9">C28+C29</f>
+        <v>3233</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="9"/>
+        <v>3320</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="9"/>
+        <v>3720</v>
+      </c>
+      <c r="F30">
+        <f>B30/B$30</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>3.69</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="L31">
+    <row r="31" spans="1:14">
+      <c r="M31">
         <v>3.28</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="L32">
-        <f>SUM(L25:L31)</f>
+    <row r="32" spans="1:14">
+      <c r="M32">
+        <f>SUM(M25:M31)</f>
         <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>61.3</v>
+      </c>
+      <c r="B50">
+        <v>2012</v>
+      </c>
+      <c r="C50">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>64.5</v>
+      </c>
+      <c r="B51">
+        <v>2013</v>
+      </c>
+      <c r="C51">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>69.5</v>
+      </c>
+      <c r="B52">
+        <v>2014</v>
+      </c>
+      <c r="C52">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>68.8</v>
+      </c>
+      <c r="B53">
+        <v>2015</v>
+      </c>
+      <c r="C53">
+        <v>31.2</v>
       </c>
     </row>
   </sheetData>
